--- a/data/8435.xlsx
+++ b/data/8435.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1199"/>
+  <dimension ref="A1:I1200"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -44135,6 +44135,41 @@
         <v>4000</v>
       </c>
     </row>
+    <row r="1200">
+      <c r="A1200" t="n">
+        <v>1581379200</v>
+      </c>
+      <c r="B1200" t="inlineStr">
+        <is>
+          <t>2020-02-11</t>
+        </is>
+      </c>
+      <c r="C1200" t="inlineStr">
+        <is>
+          <t>8435</t>
+        </is>
+      </c>
+      <c r="D1200" t="inlineStr">
+        <is>
+          <t>CEPCO</t>
+        </is>
+      </c>
+      <c r="E1200" t="n">
+        <v>0.595</v>
+      </c>
+      <c r="F1200" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="G1200" t="n">
+        <v>0.595</v>
+      </c>
+      <c r="H1200" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="I1200" t="n">
+        <v>3000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/8435.xlsx
+++ b/data/8435.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1200"/>
+  <dimension ref="A1:I1201"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -44170,6 +44170,41 @@
         <v>3000</v>
       </c>
     </row>
+    <row r="1201">
+      <c r="A1201" t="n">
+        <v>1581465600</v>
+      </c>
+      <c r="B1201" t="inlineStr">
+        <is>
+          <t>2020-02-12</t>
+        </is>
+      </c>
+      <c r="C1201" t="inlineStr">
+        <is>
+          <t>8435</t>
+        </is>
+      </c>
+      <c r="D1201" t="inlineStr">
+        <is>
+          <t>CEPCO</t>
+        </is>
+      </c>
+      <c r="E1201" t="n">
+        <v>0.595</v>
+      </c>
+      <c r="F1201" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="G1201" t="n">
+        <v>0.595</v>
+      </c>
+      <c r="H1201" t="n">
+        <v>0.6899999999999999</v>
+      </c>
+      <c r="I1201" t="n">
+        <v>10400</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/8435.xlsx
+++ b/data/8435.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1201"/>
+  <dimension ref="A1:I1202"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -44205,6 +44205,41 @@
         <v>10400</v>
       </c>
     </row>
+    <row r="1202">
+      <c r="A1202" t="n">
+        <v>1581552000</v>
+      </c>
+      <c r="B1202" t="inlineStr">
+        <is>
+          <t>2020-02-13</t>
+        </is>
+      </c>
+      <c r="C1202" t="inlineStr">
+        <is>
+          <t>8435</t>
+        </is>
+      </c>
+      <c r="D1202" t="inlineStr">
+        <is>
+          <t>CEPCO</t>
+        </is>
+      </c>
+      <c r="E1202" t="n">
+        <v>0.6899999999999999</v>
+      </c>
+      <c r="F1202" t="n">
+        <v>0.6899999999999999</v>
+      </c>
+      <c r="G1202" t="n">
+        <v>0.65</v>
+      </c>
+      <c r="H1202" t="n">
+        <v>0.67</v>
+      </c>
+      <c r="I1202" t="n">
+        <v>7000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/8435.xlsx
+++ b/data/8435.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1202"/>
+  <dimension ref="A1:I1203"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -44240,6 +44240,43 @@
         <v>7000</v>
       </c>
     </row>
+    <row r="1203">
+      <c r="A1203" t="n">
+        <v>1581638400</v>
+      </c>
+      <c r="B1203" t="inlineStr">
+        <is>
+          <t>2020-02-14</t>
+        </is>
+      </c>
+      <c r="C1203" t="inlineStr">
+        <is>
+          <t>8435</t>
+        </is>
+      </c>
+      <c r="D1203" t="inlineStr">
+        <is>
+          <t>CEPCO</t>
+        </is>
+      </c>
+      <c r="E1203" t="n">
+        <v>0.67</v>
+      </c>
+      <c r="F1203" t="n">
+        <v>0.67</v>
+      </c>
+      <c r="G1203" t="n">
+        <v>0.67</v>
+      </c>
+      <c r="H1203" t="n">
+        <v>0.67</v>
+      </c>
+      <c r="I1203" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/8435.xlsx
+++ b/data/8435.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1203"/>
+  <dimension ref="A1:I1204"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -44277,6 +44277,41 @@
         </is>
       </c>
     </row>
+    <row r="1204">
+      <c r="A1204" t="n">
+        <v>1581897600</v>
+      </c>
+      <c r="B1204" t="inlineStr">
+        <is>
+          <t>2020-02-17</t>
+        </is>
+      </c>
+      <c r="C1204" t="inlineStr">
+        <is>
+          <t>8435</t>
+        </is>
+      </c>
+      <c r="D1204" t="inlineStr">
+        <is>
+          <t>CEPCO</t>
+        </is>
+      </c>
+      <c r="E1204" t="n">
+        <v>0.68</v>
+      </c>
+      <c r="F1204" t="n">
+        <v>0.68</v>
+      </c>
+      <c r="G1204" t="n">
+        <v>0.68</v>
+      </c>
+      <c r="H1204" t="n">
+        <v>0.68</v>
+      </c>
+      <c r="I1204" t="n">
+        <v>1000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/8435.xlsx
+++ b/data/8435.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1204"/>
+  <dimension ref="A1:I1205"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -44312,6 +44312,41 @@
         <v>1000</v>
       </c>
     </row>
+    <row r="1205">
+      <c r="A1205" t="n">
+        <v>1581984000</v>
+      </c>
+      <c r="B1205" t="inlineStr">
+        <is>
+          <t>2020-02-18</t>
+        </is>
+      </c>
+      <c r="C1205" t="inlineStr">
+        <is>
+          <t>8435</t>
+        </is>
+      </c>
+      <c r="D1205" t="inlineStr">
+        <is>
+          <t>CEPCO</t>
+        </is>
+      </c>
+      <c r="E1205" t="n">
+        <v>0.62</v>
+      </c>
+      <c r="F1205" t="n">
+        <v>0.67</v>
+      </c>
+      <c r="G1205" t="n">
+        <v>0.62</v>
+      </c>
+      <c r="H1205" t="n">
+        <v>0.67</v>
+      </c>
+      <c r="I1205" t="n">
+        <v>5600</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/8435.xlsx
+++ b/data/8435.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1205"/>
+  <dimension ref="A1:I1206"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -44347,6 +44347,41 @@
         <v>5600</v>
       </c>
     </row>
+    <row r="1206">
+      <c r="A1206" t="n">
+        <v>1582070400</v>
+      </c>
+      <c r="B1206" t="inlineStr">
+        <is>
+          <t>2020-02-19</t>
+        </is>
+      </c>
+      <c r="C1206" t="inlineStr">
+        <is>
+          <t>8435</t>
+        </is>
+      </c>
+      <c r="D1206" t="inlineStr">
+        <is>
+          <t>CEPCO</t>
+        </is>
+      </c>
+      <c r="E1206" t="n">
+        <v>0.67</v>
+      </c>
+      <c r="F1206" t="n">
+        <v>0.68</v>
+      </c>
+      <c r="G1206" t="n">
+        <v>0.67</v>
+      </c>
+      <c r="H1206" t="n">
+        <v>0.68</v>
+      </c>
+      <c r="I1206" t="n">
+        <v>2500</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/8435.xlsx
+++ b/data/8435.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1206"/>
+  <dimension ref="A1:I1207"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -44382,6 +44382,41 @@
         <v>2500</v>
       </c>
     </row>
+    <row r="1207">
+      <c r="A1207" t="n">
+        <v>1582156800</v>
+      </c>
+      <c r="B1207" t="inlineStr">
+        <is>
+          <t>2020-02-20</t>
+        </is>
+      </c>
+      <c r="C1207" t="inlineStr">
+        <is>
+          <t>8435</t>
+        </is>
+      </c>
+      <c r="D1207" t="inlineStr">
+        <is>
+          <t>CEPCO</t>
+        </is>
+      </c>
+      <c r="E1207" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="F1207" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="G1207" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="H1207" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="I1207" t="n">
+        <v>1000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/8435.xlsx
+++ b/data/8435.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1207"/>
+  <dimension ref="A1:I1208"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -44417,6 +44417,43 @@
         <v>1000</v>
       </c>
     </row>
+    <row r="1208">
+      <c r="A1208" t="n">
+        <v>1582243200</v>
+      </c>
+      <c r="B1208" t="inlineStr">
+        <is>
+          <t>2020-02-21</t>
+        </is>
+      </c>
+      <c r="C1208" t="inlineStr">
+        <is>
+          <t>8435</t>
+        </is>
+      </c>
+      <c r="D1208" t="inlineStr">
+        <is>
+          <t>CEPCO</t>
+        </is>
+      </c>
+      <c r="E1208" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="F1208" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="G1208" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="H1208" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="I1208" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/8435.xlsx
+++ b/data/8435.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1208"/>
+  <dimension ref="A1:I1209"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -44454,6 +44454,43 @@
         </is>
       </c>
     </row>
+    <row r="1209">
+      <c r="A1209" t="n">
+        <v>1582502400</v>
+      </c>
+      <c r="B1209" t="inlineStr">
+        <is>
+          <t>2020-02-24</t>
+        </is>
+      </c>
+      <c r="C1209" t="inlineStr">
+        <is>
+          <t>8435</t>
+        </is>
+      </c>
+      <c r="D1209" t="inlineStr">
+        <is>
+          <t>CEPCO</t>
+        </is>
+      </c>
+      <c r="E1209" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="F1209" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="G1209" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="H1209" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="I1209" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/8435.xlsx
+++ b/data/8435.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1209"/>
+  <dimension ref="A1:I1210"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -44491,6 +44491,43 @@
         </is>
       </c>
     </row>
+    <row r="1210">
+      <c r="A1210" t="n">
+        <v>1582588800</v>
+      </c>
+      <c r="B1210" t="inlineStr">
+        <is>
+          <t>2020-02-25</t>
+        </is>
+      </c>
+      <c r="C1210" t="inlineStr">
+        <is>
+          <t>8435</t>
+        </is>
+      </c>
+      <c r="D1210" t="inlineStr">
+        <is>
+          <t>CEPCO</t>
+        </is>
+      </c>
+      <c r="E1210" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="F1210" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="G1210" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="H1210" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="I1210" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/8435.xlsx
+++ b/data/8435.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1210"/>
+  <dimension ref="A1:I1211"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -44528,6 +44528,41 @@
         </is>
       </c>
     </row>
+    <row r="1211">
+      <c r="A1211" t="n">
+        <v>1582675200</v>
+      </c>
+      <c r="B1211" t="inlineStr">
+        <is>
+          <t>2020-02-26</t>
+        </is>
+      </c>
+      <c r="C1211" t="inlineStr">
+        <is>
+          <t>8435</t>
+        </is>
+      </c>
+      <c r="D1211" t="inlineStr">
+        <is>
+          <t>CEPCO</t>
+        </is>
+      </c>
+      <c r="E1211" t="n">
+        <v>0.71</v>
+      </c>
+      <c r="F1211" t="n">
+        <v>0.74</v>
+      </c>
+      <c r="G1211" t="n">
+        <v>0.71</v>
+      </c>
+      <c r="H1211" t="n">
+        <v>0.71</v>
+      </c>
+      <c r="I1211" t="n">
+        <v>2100</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/8435.xlsx
+++ b/data/8435.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1211"/>
+  <dimension ref="A1:I1213"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -44563,6 +44563,76 @@
         <v>2100</v>
       </c>
     </row>
+    <row r="1212">
+      <c r="A1212" t="n">
+        <v>1582761600</v>
+      </c>
+      <c r="B1212" t="inlineStr">
+        <is>
+          <t>2020-02-27</t>
+        </is>
+      </c>
+      <c r="C1212" t="inlineStr">
+        <is>
+          <t>8435</t>
+        </is>
+      </c>
+      <c r="D1212" t="inlineStr">
+        <is>
+          <t>CEPCO</t>
+        </is>
+      </c>
+      <c r="E1212" t="n">
+        <v>0.71</v>
+      </c>
+      <c r="F1212" t="n">
+        <v>0.71</v>
+      </c>
+      <c r="G1212" t="n">
+        <v>0.62</v>
+      </c>
+      <c r="H1212" t="n">
+        <v>0.68</v>
+      </c>
+      <c r="I1212" t="n">
+        <v>53500</v>
+      </c>
+    </row>
+    <row r="1213">
+      <c r="A1213" t="n">
+        <v>1582848000</v>
+      </c>
+      <c r="B1213" t="inlineStr">
+        <is>
+          <t>2020-02-28</t>
+        </is>
+      </c>
+      <c r="C1213" t="inlineStr">
+        <is>
+          <t>8435</t>
+        </is>
+      </c>
+      <c r="D1213" t="inlineStr">
+        <is>
+          <t>CEPCO</t>
+        </is>
+      </c>
+      <c r="E1213" t="n">
+        <v>0.6899999999999999</v>
+      </c>
+      <c r="F1213" t="n">
+        <v>0.71</v>
+      </c>
+      <c r="G1213" t="n">
+        <v>0.675</v>
+      </c>
+      <c r="H1213" t="n">
+        <v>0.71</v>
+      </c>
+      <c r="I1213" t="n">
+        <v>56000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/8435.xlsx
+++ b/data/8435.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1213"/>
+  <dimension ref="A1:I1215"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -44633,6 +44633,76 @@
         <v>56000</v>
       </c>
     </row>
+    <row r="1214">
+      <c r="A1214" t="n">
+        <v>1583107200</v>
+      </c>
+      <c r="B1214" t="inlineStr">
+        <is>
+          <t>2020-03-02</t>
+        </is>
+      </c>
+      <c r="C1214" t="inlineStr">
+        <is>
+          <t>8435</t>
+        </is>
+      </c>
+      <c r="D1214" t="inlineStr">
+        <is>
+          <t>CEPCO</t>
+        </is>
+      </c>
+      <c r="E1214" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="F1214" t="n">
+        <v>0.8149999999999999</v>
+      </c>
+      <c r="G1214" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="H1214" t="n">
+        <v>0.8149999999999999</v>
+      </c>
+      <c r="I1214" t="n">
+        <v>4300</v>
+      </c>
+    </row>
+    <row r="1215">
+      <c r="A1215" t="n">
+        <v>1583193600</v>
+      </c>
+      <c r="B1215" t="inlineStr">
+        <is>
+          <t>2020-03-03</t>
+        </is>
+      </c>
+      <c r="C1215" t="inlineStr">
+        <is>
+          <t>8435</t>
+        </is>
+      </c>
+      <c r="D1215" t="inlineStr">
+        <is>
+          <t>CEPCO</t>
+        </is>
+      </c>
+      <c r="E1215" t="n">
+        <v>0.82</v>
+      </c>
+      <c r="F1215" t="n">
+        <v>0.82</v>
+      </c>
+      <c r="G1215" t="n">
+        <v>0.82</v>
+      </c>
+      <c r="H1215" t="n">
+        <v>0.82</v>
+      </c>
+      <c r="I1215" t="n">
+        <v>3300</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/8435.xlsx
+++ b/data/8435.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1215"/>
+  <dimension ref="A1:I1216"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -44703,6 +44703,41 @@
         <v>3300</v>
       </c>
     </row>
+    <row r="1216">
+      <c r="A1216" t="n">
+        <v>1583280000</v>
+      </c>
+      <c r="B1216" t="inlineStr">
+        <is>
+          <t>2020-03-04</t>
+        </is>
+      </c>
+      <c r="C1216" t="inlineStr">
+        <is>
+          <t>8435</t>
+        </is>
+      </c>
+      <c r="D1216" t="inlineStr">
+        <is>
+          <t>CEPCO</t>
+        </is>
+      </c>
+      <c r="E1216" t="n">
+        <v>0.82</v>
+      </c>
+      <c r="F1216" t="n">
+        <v>0.82</v>
+      </c>
+      <c r="G1216" t="n">
+        <v>0.8100000000000001</v>
+      </c>
+      <c r="H1216" t="n">
+        <v>0.82</v>
+      </c>
+      <c r="I1216" t="n">
+        <v>13500</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/8435.xlsx
+++ b/data/8435.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1216"/>
+  <dimension ref="A1:I1217"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -44738,6 +44738,41 @@
         <v>13500</v>
       </c>
     </row>
+    <row r="1217">
+      <c r="A1217" t="n">
+        <v>1583366400</v>
+      </c>
+      <c r="B1217" t="inlineStr">
+        <is>
+          <t>2020-03-05</t>
+        </is>
+      </c>
+      <c r="C1217" t="inlineStr">
+        <is>
+          <t>8435</t>
+        </is>
+      </c>
+      <c r="D1217" t="inlineStr">
+        <is>
+          <t>CEPCO</t>
+        </is>
+      </c>
+      <c r="E1217" t="n">
+        <v>0.82</v>
+      </c>
+      <c r="F1217" t="n">
+        <v>0.82</v>
+      </c>
+      <c r="G1217" t="n">
+        <v>0.82</v>
+      </c>
+      <c r="H1217" t="n">
+        <v>0.82</v>
+      </c>
+      <c r="I1217" t="n">
+        <v>2900</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/8435.xlsx
+++ b/data/8435.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1217"/>
+  <dimension ref="A1:I1218"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -44773,6 +44773,41 @@
         <v>2900</v>
       </c>
     </row>
+    <row r="1218">
+      <c r="A1218" t="n">
+        <v>1583452800</v>
+      </c>
+      <c r="B1218" t="inlineStr">
+        <is>
+          <t>2020-03-06</t>
+        </is>
+      </c>
+      <c r="C1218" t="inlineStr">
+        <is>
+          <t>8435</t>
+        </is>
+      </c>
+      <c r="D1218" t="inlineStr">
+        <is>
+          <t>CEPCO</t>
+        </is>
+      </c>
+      <c r="E1218" t="n">
+        <v>0.85</v>
+      </c>
+      <c r="F1218" t="n">
+        <v>0.85</v>
+      </c>
+      <c r="G1218" t="n">
+        <v>0.85</v>
+      </c>
+      <c r="H1218" t="n">
+        <v>0.85</v>
+      </c>
+      <c r="I1218" t="n">
+        <v>1500</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/8435.xlsx
+++ b/data/8435.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1218"/>
+  <dimension ref="A1:I1219"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -44808,6 +44808,41 @@
         <v>1500</v>
       </c>
     </row>
+    <row r="1219">
+      <c r="A1219" t="n">
+        <v>1583712000</v>
+      </c>
+      <c r="B1219" t="inlineStr">
+        <is>
+          <t>2020-03-09</t>
+        </is>
+      </c>
+      <c r="C1219" t="inlineStr">
+        <is>
+          <t>8435</t>
+        </is>
+      </c>
+      <c r="D1219" t="inlineStr">
+        <is>
+          <t>CEPCO</t>
+        </is>
+      </c>
+      <c r="E1219" t="n">
+        <v>0.82</v>
+      </c>
+      <c r="F1219" t="n">
+        <v>0.885</v>
+      </c>
+      <c r="G1219" t="n">
+        <v>0.8100000000000001</v>
+      </c>
+      <c r="H1219" t="n">
+        <v>0.885</v>
+      </c>
+      <c r="I1219" t="n">
+        <v>8700</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/8435.xlsx
+++ b/data/8435.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1219"/>
+  <dimension ref="A1:I1221"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -44843,6 +44843,76 @@
         <v>8700</v>
       </c>
     </row>
+    <row r="1220">
+      <c r="A1220" t="n">
+        <v>1583798400</v>
+      </c>
+      <c r="B1220" t="inlineStr">
+        <is>
+          <t>2020-03-10</t>
+        </is>
+      </c>
+      <c r="C1220" t="inlineStr">
+        <is>
+          <t>8435</t>
+        </is>
+      </c>
+      <c r="D1220" t="inlineStr">
+        <is>
+          <t>CEPCO</t>
+        </is>
+      </c>
+      <c r="E1220" t="n">
+        <v>0.82</v>
+      </c>
+      <c r="F1220" t="n">
+        <v>0.83</v>
+      </c>
+      <c r="G1220" t="n">
+        <v>0.82</v>
+      </c>
+      <c r="H1220" t="n">
+        <v>0.83</v>
+      </c>
+      <c r="I1220" t="n">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="1221">
+      <c r="A1221" t="n">
+        <v>1583884800</v>
+      </c>
+      <c r="B1221" t="inlineStr">
+        <is>
+          <t>2020-03-11</t>
+        </is>
+      </c>
+      <c r="C1221" t="inlineStr">
+        <is>
+          <t>8435</t>
+        </is>
+      </c>
+      <c r="D1221" t="inlineStr">
+        <is>
+          <t>CEPCO</t>
+        </is>
+      </c>
+      <c r="E1221" t="n">
+        <v>0.82</v>
+      </c>
+      <c r="F1221" t="n">
+        <v>0.84</v>
+      </c>
+      <c r="G1221" t="n">
+        <v>0.82</v>
+      </c>
+      <c r="H1221" t="n">
+        <v>0.83</v>
+      </c>
+      <c r="I1221" t="n">
+        <v>3500</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/8435.xlsx
+++ b/data/8435.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1221"/>
+  <dimension ref="A1:I1222"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -44913,6 +44913,41 @@
         <v>3500</v>
       </c>
     </row>
+    <row r="1222">
+      <c r="A1222" t="n">
+        <v>1583971200</v>
+      </c>
+      <c r="B1222" t="inlineStr">
+        <is>
+          <t>2020-03-12</t>
+        </is>
+      </c>
+      <c r="C1222" t="inlineStr">
+        <is>
+          <t>8435</t>
+        </is>
+      </c>
+      <c r="D1222" t="inlineStr">
+        <is>
+          <t>CEPCO</t>
+        </is>
+      </c>
+      <c r="E1222" t="n">
+        <v>0.82</v>
+      </c>
+      <c r="F1222" t="n">
+        <v>0.85</v>
+      </c>
+      <c r="G1222" t="n">
+        <v>0.82</v>
+      </c>
+      <c r="H1222" t="n">
+        <v>0.85</v>
+      </c>
+      <c r="I1222" t="n">
+        <v>6500</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/8435.xlsx
+++ b/data/8435.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1222"/>
+  <dimension ref="A1:I1223"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -44948,6 +44948,41 @@
         <v>6500</v>
       </c>
     </row>
+    <row r="1223">
+      <c r="A1223" t="n">
+        <v>1584057600</v>
+      </c>
+      <c r="B1223" t="inlineStr">
+        <is>
+          <t>2020-03-13</t>
+        </is>
+      </c>
+      <c r="C1223" t="inlineStr">
+        <is>
+          <t>8435</t>
+        </is>
+      </c>
+      <c r="D1223" t="inlineStr">
+        <is>
+          <t>CEPCO</t>
+        </is>
+      </c>
+      <c r="E1223" t="n">
+        <v>0.84</v>
+      </c>
+      <c r="F1223" t="n">
+        <v>0.85</v>
+      </c>
+      <c r="G1223" t="n">
+        <v>0.84</v>
+      </c>
+      <c r="H1223" t="n">
+        <v>0.85</v>
+      </c>
+      <c r="I1223" t="n">
+        <v>3500</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/8435.xlsx
+++ b/data/8435.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1857"/>
+  <dimension ref="A1:I1858"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -67173,6 +67173,43 @@
         <v>3500</v>
       </c>
     </row>
+    <row r="1858">
+      <c r="A1858" t="n">
+        <v>1584316800</v>
+      </c>
+      <c r="B1858" t="inlineStr">
+        <is>
+          <t>2020-03-16</t>
+        </is>
+      </c>
+      <c r="C1858" t="inlineStr">
+        <is>
+          <t>8435</t>
+        </is>
+      </c>
+      <c r="D1858" t="inlineStr">
+        <is>
+          <t>CEPCO</t>
+        </is>
+      </c>
+      <c r="E1858" t="n">
+        <v>0.85</v>
+      </c>
+      <c r="F1858" t="n">
+        <v>0.85</v>
+      </c>
+      <c r="G1858" t="n">
+        <v>0.85</v>
+      </c>
+      <c r="H1858" t="n">
+        <v>0.85</v>
+      </c>
+      <c r="I1858" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/8435.xlsx
+++ b/data/8435.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1858"/>
+  <dimension ref="A1:I1859"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -67210,6 +67210,43 @@
         </is>
       </c>
     </row>
+    <row r="1859">
+      <c r="A1859" t="n">
+        <v>1584403200</v>
+      </c>
+      <c r="B1859" t="inlineStr">
+        <is>
+          <t>2020-03-17</t>
+        </is>
+      </c>
+      <c r="C1859" t="inlineStr">
+        <is>
+          <t>8435</t>
+        </is>
+      </c>
+      <c r="D1859" t="inlineStr">
+        <is>
+          <t>CEPCO</t>
+        </is>
+      </c>
+      <c r="E1859" t="n">
+        <v>0.85</v>
+      </c>
+      <c r="F1859" t="n">
+        <v>0.85</v>
+      </c>
+      <c r="G1859" t="n">
+        <v>0.85</v>
+      </c>
+      <c r="H1859" t="n">
+        <v>0.85</v>
+      </c>
+      <c r="I1859" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/8435.xlsx
+++ b/data/8435.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1859"/>
+  <dimension ref="A1:I1860"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -67247,6 +67247,41 @@
         </is>
       </c>
     </row>
+    <row r="1860">
+      <c r="A1860" t="n">
+        <v>1584489600</v>
+      </c>
+      <c r="B1860" t="inlineStr">
+        <is>
+          <t>2020-03-18</t>
+        </is>
+      </c>
+      <c r="C1860" t="inlineStr">
+        <is>
+          <t>8435</t>
+        </is>
+      </c>
+      <c r="D1860" t="inlineStr">
+        <is>
+          <t>CEPCO</t>
+        </is>
+      </c>
+      <c r="E1860" t="n">
+        <v>0.61</v>
+      </c>
+      <c r="F1860" t="n">
+        <v>0.76</v>
+      </c>
+      <c r="G1860" t="n">
+        <v>0.61</v>
+      </c>
+      <c r="H1860" t="n">
+        <v>0.76</v>
+      </c>
+      <c r="I1860" t="n">
+        <v>14000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/8435.xlsx
+++ b/data/8435.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1860"/>
+  <dimension ref="A1:I1861"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -67282,6 +67282,41 @@
         <v>14000</v>
       </c>
     </row>
+    <row r="1861">
+      <c r="A1861" t="n">
+        <v>1584576000</v>
+      </c>
+      <c r="B1861" t="inlineStr">
+        <is>
+          <t>2020-03-19</t>
+        </is>
+      </c>
+      <c r="C1861" t="inlineStr">
+        <is>
+          <t>8435</t>
+        </is>
+      </c>
+      <c r="D1861" t="inlineStr">
+        <is>
+          <t>CEPCO</t>
+        </is>
+      </c>
+      <c r="E1861" t="n">
+        <v>0.65</v>
+      </c>
+      <c r="F1861" t="n">
+        <v>0.65</v>
+      </c>
+      <c r="G1861" t="n">
+        <v>0.55</v>
+      </c>
+      <c r="H1861" t="n">
+        <v>0.55</v>
+      </c>
+      <c r="I1861" t="n">
+        <v>19000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/8435.xlsx
+++ b/data/8435.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1861"/>
+  <dimension ref="A1:I1862"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -67317,6 +67317,43 @@
         <v>19000</v>
       </c>
     </row>
+    <row r="1862">
+      <c r="A1862" t="n">
+        <v>1584662400</v>
+      </c>
+      <c r="B1862" t="inlineStr">
+        <is>
+          <t>2020-03-20</t>
+        </is>
+      </c>
+      <c r="C1862" t="inlineStr">
+        <is>
+          <t>8435</t>
+        </is>
+      </c>
+      <c r="D1862" t="inlineStr">
+        <is>
+          <t>CEPCO</t>
+        </is>
+      </c>
+      <c r="E1862" t="n">
+        <v>0.55</v>
+      </c>
+      <c r="F1862" t="n">
+        <v>0.55</v>
+      </c>
+      <c r="G1862" t="n">
+        <v>0.55</v>
+      </c>
+      <c r="H1862" t="n">
+        <v>0.55</v>
+      </c>
+      <c r="I1862" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/8435.xlsx
+++ b/data/8435.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1862"/>
+  <dimension ref="A1:I1863"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -67354,6 +67354,43 @@
         </is>
       </c>
     </row>
+    <row r="1863">
+      <c r="A1863" t="n">
+        <v>1584921600</v>
+      </c>
+      <c r="B1863" t="inlineStr">
+        <is>
+          <t>2020-03-23</t>
+        </is>
+      </c>
+      <c r="C1863" t="inlineStr">
+        <is>
+          <t>8435</t>
+        </is>
+      </c>
+      <c r="D1863" t="inlineStr">
+        <is>
+          <t>CEPCO</t>
+        </is>
+      </c>
+      <c r="E1863" t="n">
+        <v>0.55</v>
+      </c>
+      <c r="F1863" t="n">
+        <v>0.55</v>
+      </c>
+      <c r="G1863" t="n">
+        <v>0.55</v>
+      </c>
+      <c r="H1863" t="n">
+        <v>0.55</v>
+      </c>
+      <c r="I1863" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/8435.xlsx
+++ b/data/8435.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1863"/>
+  <dimension ref="A1:I1864"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -67391,6 +67391,41 @@
         </is>
       </c>
     </row>
+    <row r="1864">
+      <c r="A1864" t="n">
+        <v>1585008000</v>
+      </c>
+      <c r="B1864" t="inlineStr">
+        <is>
+          <t>2020-03-24</t>
+        </is>
+      </c>
+      <c r="C1864" t="inlineStr">
+        <is>
+          <t>8435</t>
+        </is>
+      </c>
+      <c r="D1864" t="inlineStr">
+        <is>
+          <t>CEPCO</t>
+        </is>
+      </c>
+      <c r="E1864" t="n">
+        <v>0.61</v>
+      </c>
+      <c r="F1864" t="n">
+        <v>0.6899999999999999</v>
+      </c>
+      <c r="G1864" t="n">
+        <v>0.61</v>
+      </c>
+      <c r="H1864" t="n">
+        <v>0.6899999999999999</v>
+      </c>
+      <c r="I1864" t="n">
+        <v>16100</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/8435.xlsx
+++ b/data/8435.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1864"/>
+  <dimension ref="A1:I1865"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -67426,6 +67426,41 @@
         <v>16100</v>
       </c>
     </row>
+    <row r="1865">
+      <c r="A1865" t="n">
+        <v>1585094400</v>
+      </c>
+      <c r="B1865" t="inlineStr">
+        <is>
+          <t>2020-03-25</t>
+        </is>
+      </c>
+      <c r="C1865" t="inlineStr">
+        <is>
+          <t>8435</t>
+        </is>
+      </c>
+      <c r="D1865" t="inlineStr">
+        <is>
+          <t>CEPCO</t>
+        </is>
+      </c>
+      <c r="E1865" t="n">
+        <v>0.71</v>
+      </c>
+      <c r="F1865" t="n">
+        <v>0.71</v>
+      </c>
+      <c r="G1865" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="H1865" t="n">
+        <v>0.705</v>
+      </c>
+      <c r="I1865" t="n">
+        <v>5000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/8435.xlsx
+++ b/data/8435.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1865"/>
+  <dimension ref="A1:I1866"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -67461,6 +67461,43 @@
         <v>5000</v>
       </c>
     </row>
+    <row r="1866">
+      <c r="A1866" t="n">
+        <v>1585180800</v>
+      </c>
+      <c r="B1866" t="inlineStr">
+        <is>
+          <t>2020-03-26</t>
+        </is>
+      </c>
+      <c r="C1866" t="inlineStr">
+        <is>
+          <t>8435</t>
+        </is>
+      </c>
+      <c r="D1866" t="inlineStr">
+        <is>
+          <t>CEPCO</t>
+        </is>
+      </c>
+      <c r="E1866" t="n">
+        <v>0.705</v>
+      </c>
+      <c r="F1866" t="n">
+        <v>0.705</v>
+      </c>
+      <c r="G1866" t="n">
+        <v>0.705</v>
+      </c>
+      <c r="H1866" t="n">
+        <v>0.705</v>
+      </c>
+      <c r="I1866" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/8435.xlsx
+++ b/data/8435.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1866"/>
+  <dimension ref="A1:I1867"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -67498,6 +67498,43 @@
         </is>
       </c>
     </row>
+    <row r="1867">
+      <c r="A1867" t="n">
+        <v>1585267200</v>
+      </c>
+      <c r="B1867" t="inlineStr">
+        <is>
+          <t>2020-03-27</t>
+        </is>
+      </c>
+      <c r="C1867" t="inlineStr">
+        <is>
+          <t>8435</t>
+        </is>
+      </c>
+      <c r="D1867" t="inlineStr">
+        <is>
+          <t>CEPCO</t>
+        </is>
+      </c>
+      <c r="E1867" t="n">
+        <v>0.705</v>
+      </c>
+      <c r="F1867" t="n">
+        <v>0.705</v>
+      </c>
+      <c r="G1867" t="n">
+        <v>0.705</v>
+      </c>
+      <c r="H1867" t="n">
+        <v>0.705</v>
+      </c>
+      <c r="I1867" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/8435.xlsx
+++ b/data/8435.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1867"/>
+  <dimension ref="A1:I1868"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -67535,6 +67535,43 @@
         </is>
       </c>
     </row>
+    <row r="1868">
+      <c r="A1868" t="n">
+        <v>1585526400</v>
+      </c>
+      <c r="B1868" t="inlineStr">
+        <is>
+          <t>2020-03-30</t>
+        </is>
+      </c>
+      <c r="C1868" t="inlineStr">
+        <is>
+          <t>8435</t>
+        </is>
+      </c>
+      <c r="D1868" t="inlineStr">
+        <is>
+          <t>CEPCO</t>
+        </is>
+      </c>
+      <c r="E1868" t="n">
+        <v>0.705</v>
+      </c>
+      <c r="F1868" t="n">
+        <v>0.705</v>
+      </c>
+      <c r="G1868" t="n">
+        <v>0.705</v>
+      </c>
+      <c r="H1868" t="n">
+        <v>0.705</v>
+      </c>
+      <c r="I1868" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/8435.xlsx
+++ b/data/8435.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1868"/>
+  <dimension ref="A1:I1869"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -67572,6 +67572,43 @@
         </is>
       </c>
     </row>
+    <row r="1869">
+      <c r="A1869" t="n">
+        <v>1585612800</v>
+      </c>
+      <c r="B1869" t="inlineStr">
+        <is>
+          <t>2020-03-31</t>
+        </is>
+      </c>
+      <c r="C1869" t="inlineStr">
+        <is>
+          <t>8435</t>
+        </is>
+      </c>
+      <c r="D1869" t="inlineStr">
+        <is>
+          <t>CEPCO</t>
+        </is>
+      </c>
+      <c r="E1869" t="n">
+        <v>0.705</v>
+      </c>
+      <c r="F1869" t="n">
+        <v>0.705</v>
+      </c>
+      <c r="G1869" t="n">
+        <v>0.705</v>
+      </c>
+      <c r="H1869" t="n">
+        <v>0.705</v>
+      </c>
+      <c r="I1869" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/8435.xlsx
+++ b/data/8435.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1869"/>
+  <dimension ref="A1:I1870"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -67609,6 +67609,43 @@
         </is>
       </c>
     </row>
+    <row r="1870">
+      <c r="A1870" t="n">
+        <v>1585699200</v>
+      </c>
+      <c r="B1870" t="inlineStr">
+        <is>
+          <t>2020-04-01</t>
+        </is>
+      </c>
+      <c r="C1870" t="inlineStr">
+        <is>
+          <t>8435</t>
+        </is>
+      </c>
+      <c r="D1870" t="inlineStr">
+        <is>
+          <t>CEPCO</t>
+        </is>
+      </c>
+      <c r="E1870" t="n">
+        <v>0.705</v>
+      </c>
+      <c r="F1870" t="n">
+        <v>0.705</v>
+      </c>
+      <c r="G1870" t="n">
+        <v>0.705</v>
+      </c>
+      <c r="H1870" t="n">
+        <v>0.705</v>
+      </c>
+      <c r="I1870" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/8435.xlsx
+++ b/data/8435.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1870"/>
+  <dimension ref="A1:I1871"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -67646,6 +67646,43 @@
         </is>
       </c>
     </row>
+    <row r="1871">
+      <c r="A1871" t="n">
+        <v>1585785600</v>
+      </c>
+      <c r="B1871" t="inlineStr">
+        <is>
+          <t>2020-04-02</t>
+        </is>
+      </c>
+      <c r="C1871" t="inlineStr">
+        <is>
+          <t>8435</t>
+        </is>
+      </c>
+      <c r="D1871" t="inlineStr">
+        <is>
+          <t>CEPCO</t>
+        </is>
+      </c>
+      <c r="E1871" t="n">
+        <v>0.705</v>
+      </c>
+      <c r="F1871" t="n">
+        <v>0.705</v>
+      </c>
+      <c r="G1871" t="n">
+        <v>0.705</v>
+      </c>
+      <c r="H1871" t="n">
+        <v>0.705</v>
+      </c>
+      <c r="I1871" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/8435.xlsx
+++ b/data/8435.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1871"/>
+  <dimension ref="A1:I1872"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -67683,6 +67683,43 @@
         </is>
       </c>
     </row>
+    <row r="1872">
+      <c r="A1872" t="n">
+        <v>1585872000</v>
+      </c>
+      <c r="B1872" t="inlineStr">
+        <is>
+          <t>2020-04-03</t>
+        </is>
+      </c>
+      <c r="C1872" t="inlineStr">
+        <is>
+          <t>8435</t>
+        </is>
+      </c>
+      <c r="D1872" t="inlineStr">
+        <is>
+          <t>CEPCO</t>
+        </is>
+      </c>
+      <c r="E1872" t="n">
+        <v>0.705</v>
+      </c>
+      <c r="F1872" t="n">
+        <v>0.705</v>
+      </c>
+      <c r="G1872" t="n">
+        <v>0.705</v>
+      </c>
+      <c r="H1872" t="n">
+        <v>0.705</v>
+      </c>
+      <c r="I1872" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
